--- a/presentation03/presentation/benchmark.xlsx
+++ b/presentation03/presentation/benchmark.xlsx
@@ -79,7 +79,7 @@
     <t>average run</t>
   </si>
   <si>
-    <t>1000000000 values</t>
+    <t>1,000,000,000 values</t>
   </si>
 </sst>
 </file>
@@ -205,11 +205,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -273,6 +273,282 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Parallel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Algorithm Runtimes for Finding Primes between 2 and 1,000,000,000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>success!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>success!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>64.97851299999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.971878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.4544144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.0927214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.8725506</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5348096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.069758</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.7680534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0983226</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.267687</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9402468</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.364155800000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2114781688"/>
+        <c:axId val="2114780264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2114781688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> of Processors</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2114780264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2114780264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> (seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2114781688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -600,7 +876,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A2" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -612,7 +888,11 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1">
+        <f>(B17)</f>
+        <v>64.978512999999992</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -629,99 +909,99 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="e">
-        <f t="shared" ref="B3:B13" si="0">(B18)</f>
-        <v>#DIV/0!</v>
+      <c r="B3">
+        <f t="shared" ref="B2:B13" si="0">(B19)</f>
+        <v>34.971878000000004</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="e">
+      <c r="B4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>23.454414399999997</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="e">
+      <c r="B5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>18.092721400000002</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="e">
+      <c r="B6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>14.8725506</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="e">
+      <c r="B7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>12.534809599999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="e">
+      <c r="B8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>11.069757999999998</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="e">
+      <c r="B9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.7680533999999994</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="e">
+      <c r="B10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.0983225999999995</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="e">
+      <c r="B11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>8.2676870000000005</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="e">
+      <c r="B12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>7.9402467999999997</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="e">
+      <c r="B13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>7.3641558000000007</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -772,113 +1052,294 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" t="e">
+      <c r="B18">
         <f t="shared" ref="B18:B29" si="1">AVERAGE(C18:G18)</f>
-        <v>#DIV/0!</v>
+        <v>65.245990999999989</v>
+      </c>
+      <c r="C18">
+        <v>65.116738999999995</v>
+      </c>
+      <c r="D18">
+        <v>65.141998999999998</v>
+      </c>
+      <c r="E18">
+        <v>65.421228999999997</v>
+      </c>
+      <c r="F18">
+        <v>65.170821000000004</v>
+      </c>
+      <c r="G18">
+        <v>65.379166999999995</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" t="e">
+      <c r="B19">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>34.971878000000004</v>
+      </c>
+      <c r="C19">
+        <v>34.969985000000001</v>
+      </c>
+      <c r="D19">
+        <v>35.184291999999999</v>
+      </c>
+      <c r="E19">
+        <v>34.920596000000003</v>
+      </c>
+      <c r="F19">
+        <v>34.838206</v>
+      </c>
+      <c r="G19">
+        <v>34.946311000000001</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" t="e">
+      <c r="B20">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>23.454414399999997</v>
+      </c>
+      <c r="C20">
+        <v>23.326158</v>
+      </c>
+      <c r="D20">
+        <v>23.571650000000002</v>
+      </c>
+      <c r="E20">
+        <v>23.483681000000001</v>
+      </c>
+      <c r="F20">
+        <v>23.553073999999999</v>
+      </c>
+      <c r="G20">
+        <v>23.337509000000001</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" t="e">
+      <c r="B21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>18.092721400000002</v>
+      </c>
+      <c r="C21">
+        <v>18.074266000000001</v>
+      </c>
+      <c r="D21">
+        <v>18.084631000000002</v>
+      </c>
+      <c r="E21">
+        <v>18.105756</v>
+      </c>
+      <c r="F21">
+        <v>18.088875000000002</v>
+      </c>
+      <c r="G21">
+        <v>18.110078999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" t="e">
+      <c r="B22">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>14.8725506</v>
+      </c>
+      <c r="C22">
+        <v>14.85046</v>
+      </c>
+      <c r="D22">
+        <v>14.88278</v>
+      </c>
+      <c r="E22">
+        <v>14.870403</v>
+      </c>
+      <c r="F22">
+        <v>14.887093999999999</v>
+      </c>
+      <c r="G22">
+        <v>14.872016</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" t="e">
+      <c r="B23">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>12.534809599999999</v>
+      </c>
+      <c r="C23">
+        <v>12.552853000000001</v>
+      </c>
+      <c r="D23">
+        <v>12.550913</v>
+      </c>
+      <c r="E23">
+        <v>12.526154</v>
+      </c>
+      <c r="F23">
+        <v>12.541743</v>
+      </c>
+      <c r="G23">
+        <v>12.502385</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
         <v>7</v>
       </c>
-      <c r="B24" t="e">
+      <c r="B24">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>11.069757999999998</v>
+      </c>
+      <c r="C24">
+        <v>11.077816</v>
+      </c>
+      <c r="D24">
+        <v>11.070542</v>
+      </c>
+      <c r="E24">
+        <v>11.064556</v>
+      </c>
+      <c r="F24">
+        <v>11.063995</v>
+      </c>
+      <c r="G24">
+        <v>11.071880999999999</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
         <v>8</v>
       </c>
-      <c r="B25" t="e">
+      <c r="B25">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9.7680533999999994</v>
+      </c>
+      <c r="C25">
+        <v>9.7617510000000003</v>
+      </c>
+      <c r="D25">
+        <v>9.7532490000000003</v>
+      </c>
+      <c r="E25">
+        <v>9.7819660000000006</v>
+      </c>
+      <c r="F25">
+        <v>9.7730370000000004</v>
+      </c>
+      <c r="G25">
+        <v>9.7702639999999992</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
         <v>9</v>
       </c>
-      <c r="B26" t="e">
+      <c r="B26">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9.0983225999999995</v>
+      </c>
+      <c r="C26">
+        <v>9.0997509999999995</v>
+      </c>
+      <c r="D26">
+        <v>9.0956899999999994</v>
+      </c>
+      <c r="E26">
+        <v>9.0978069999999995</v>
+      </c>
+      <c r="F26">
+        <v>9.1008689999999994</v>
+      </c>
+      <c r="G26">
+        <v>9.0974959999999996</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
         <v>10</v>
       </c>
-      <c r="B27" t="e">
+      <c r="B27">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.2676870000000005</v>
+      </c>
+      <c r="C27">
+        <v>8.2664799999999996</v>
+      </c>
+      <c r="D27">
+        <v>8.2674310000000002</v>
+      </c>
+      <c r="E27">
+        <v>8.2712369999999993</v>
+      </c>
+      <c r="F27">
+        <v>8.2679170000000006</v>
+      </c>
+      <c r="G27">
+        <v>8.2653700000000008</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
         <v>11</v>
       </c>
-      <c r="B28" t="e">
+      <c r="B28">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7.9402467999999997</v>
+      </c>
+      <c r="C28">
+        <v>7.9338540000000002</v>
+      </c>
+      <c r="D28">
+        <v>7.9335069999999996</v>
+      </c>
+      <c r="E28">
+        <v>7.9501400000000002</v>
+      </c>
+      <c r="F28">
+        <v>7.9428470000000004</v>
+      </c>
+      <c r="G28">
+        <v>7.9408859999999999</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
         <v>12</v>
       </c>
-      <c r="B29" t="e">
+      <c r="B29">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7.3641558000000007</v>
+      </c>
+      <c r="C29">
+        <v>7.3779240000000001</v>
+      </c>
+      <c r="D29">
+        <v>7.3563369999999999</v>
+      </c>
+      <c r="E29">
+        <v>7.3624780000000003</v>
+      </c>
+      <c r="F29">
+        <v>7.3738770000000002</v>
+      </c>
+      <c r="G29">
+        <v>7.3501630000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -903,13 +1364,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
@@ -936,23 +1397,23 @@
         <v>10000</v>
       </c>
       <c r="B3">
-        <f>(B12)</f>
+        <f t="shared" ref="B3:B9" si="0">(B12)</f>
         <v>1.9680000000000001E-4</v>
       </c>
       <c r="C3" t="e">
-        <f>(B21)</f>
+        <f t="shared" ref="C3:C9" si="1">(B21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" t="e">
-        <f>(B30)</f>
+        <f t="shared" ref="D3:D9" si="2">(B30)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3">
-        <f>(J12)</f>
+        <f t="shared" ref="E3:E9" si="3">(J12)</f>
         <v>0</v>
       </c>
       <c r="F3" t="e">
-        <f>(J21)</f>
+        <f t="shared" ref="F3:F9" si="4">(J21)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -961,23 +1422,23 @@
         <v>100000</v>
       </c>
       <c r="B4">
-        <f>(B13)</f>
+        <f t="shared" si="0"/>
         <v>1.5322000000000001E-3</v>
       </c>
       <c r="C4" t="e">
-        <f>(B22)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D4" t="e">
-        <f>(B31)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E4" t="e">
-        <f>(J13)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F4" t="e">
-        <f>(J22)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -986,23 +1447,23 @@
         <v>1000000</v>
       </c>
       <c r="B5">
-        <f>(B14)</f>
+        <f t="shared" si="0"/>
         <v>1.9021799999999998E-2</v>
       </c>
       <c r="C5" t="e">
-        <f>(B23)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D5" t="e">
-        <f>(B32)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E5" t="e">
-        <f>(J14)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F5" t="e">
-        <f>(J23)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1011,23 +1472,23 @@
         <v>10000000</v>
       </c>
       <c r="B6">
-        <f>(B15)</f>
+        <f t="shared" si="0"/>
         <v>0.2115234</v>
       </c>
       <c r="C6">
-        <f>(B24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6">
-        <f>(B33)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f>(J15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F6" t="e">
-        <f>(J24)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1036,23 +1497,23 @@
         <v>100000000</v>
       </c>
       <c r="B7">
-        <f>(B16)</f>
+        <f t="shared" si="0"/>
         <v>5.3856212000000001</v>
       </c>
       <c r="C7" t="e">
-        <f>(B25)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D7" t="e">
-        <f>(B34)</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E7" t="e">
-        <f>(J16)</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F7" t="e">
-        <f>(J25)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1061,23 +1522,23 @@
         <v>500000000</v>
       </c>
       <c r="B8">
-        <f>(B17)</f>
+        <f t="shared" si="0"/>
         <v>31.216367499999997</v>
       </c>
       <c r="C8">
-        <f>(B26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D8">
-        <f>(B35)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f>(J17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8" t="e">
-        <f>(J26)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1086,23 +1547,23 @@
         <v>1000000000</v>
       </c>
       <c r="B9">
-        <f>(B18)</f>
+        <f t="shared" si="0"/>
         <v>65.143330750000004</v>
       </c>
       <c r="C9">
-        <f>(B27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D9">
-        <f>(B36)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>(J18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9" t="e">
-        <f>(J27)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1155,7 +1616,7 @@
         <v>10000</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B18" si="0">AVERAGE(C12:G12)</f>
+        <f t="shared" ref="B12:B18" si="5">AVERAGE(C12:G12)</f>
         <v>1.9680000000000001E-4</v>
       </c>
       <c r="C12">
@@ -1164,7 +1625,7 @@
       <c r="D12">
         <v>2.0699999999999999E-4</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>1.94E-4</v>
       </c>
       <c r="F12">
@@ -1176,14 +1637,14 @@
       <c r="I12">
         <v>10000</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13">
         <v>100000</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.5322000000000001E-3</v>
       </c>
       <c r="C13">
@@ -1205,7 +1666,7 @@
         <v>100000</v>
       </c>
       <c r="J13" t="e">
-        <f t="shared" ref="J13:J14" si="1">AVERAGE(K13:O13)</f>
+        <f t="shared" ref="J13:J14" si="6">AVERAGE(K13:O13)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1214,7 +1675,7 @@
         <v>1000000</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.9021799999999998E-2</v>
       </c>
       <c r="C14">
@@ -1236,7 +1697,7 @@
         <v>1000000</v>
       </c>
       <c r="J14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1245,7 +1706,7 @@
         <v>10000000</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.2115234</v>
       </c>
       <c r="C15">
@@ -1272,7 +1733,7 @@
         <v>100000000</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5.3856212000000001</v>
       </c>
       <c r="C16">
@@ -1303,7 +1764,7 @@
         <v>500000000</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>31.216367499999997</v>
       </c>
       <c r="C17">
@@ -1321,7 +1782,7 @@
         <v>1000000000</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>65.143330750000004</v>
       </c>
       <c r="C18">
@@ -1390,32 +1851,32 @@
         <v>10000</v>
       </c>
       <c r="B21" t="e">
-        <f t="shared" ref="B21:B23" si="2">AVERAGE(C21:G21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="3"/>
+        <f t="shared" ref="B21:B23" si="7">AVERAGE(C21:G21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="I21">
         <v>10000</v>
       </c>
       <c r="J21" t="e">
-        <f t="shared" ref="J21:J27" si="3">AVERAGE(K21:O21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="3"/>
+        <f t="shared" ref="J21:J27" si="8">AVERAGE(K21:O21)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22">
         <v>100000</v>
       </c>
       <c r="B22" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I22">
         <v>100000</v>
       </c>
       <c r="J22" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1424,14 +1885,14 @@
         <v>1000000</v>
       </c>
       <c r="B23" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I23">
         <v>1000000</v>
       </c>
       <c r="J23" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1450,7 +1911,7 @@
         <v>10000000</v>
       </c>
       <c r="J24" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K24"/>
@@ -1471,7 +1932,7 @@
         <v>100000000</v>
       </c>
       <c r="J25" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1483,7 +1944,7 @@
         <v>500000000</v>
       </c>
       <c r="J26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1495,7 +1956,7 @@
         <v>1000000000</v>
       </c>
       <c r="J27" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1527,17 +1988,17 @@
         <v>10000</v>
       </c>
       <c r="B30" t="e">
-        <f t="shared" ref="B30:B32" si="4">AVERAGE(C30:G30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="3"/>
+        <f t="shared" ref="B30:B32" si="9">AVERAGE(C30:G30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31">
         <v>100000</v>
       </c>
       <c r="B31" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1546,7 +2007,7 @@
         <v>1000000</v>
       </c>
       <c r="B32" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
     </row>
